--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6C05C011-9204-4B07-BD26-0ABB7A3826C7}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A4B2321B-11AD-4587-9924-5194923AEE7E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Law Enforcement Response to People with Mental Illnesses in Benton County</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1146/annurev-criminol-011419-041541</t>
   </si>
 </sst>
 </file>
@@ -535,12 +538,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
     <col min="5" max="5" width="88.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,6 +720,9 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
       <c r="H7">
         <v>3</v>
       </c>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A4B2321B-11AD-4587-9924-5194923AEE7E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{22F2A400-54AE-479C-8635-4B937492E78E}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1146/annurev-criminol-011419-041541</t>
+  </si>
+  <si>
+    <t>10.1146/annurev-criminol-011419-041541</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,8 +723,11 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>3</v>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{22F2A400-54AE-479C-8635-4B937492E78E}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2894FA13-A16B-43D6-8DDF-CE22804EA155}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>type</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>10.1146/annurev-criminol-011419-041541</t>
+  </si>
+  <si>
+    <t>Seattle Police Department</t>
+  </si>
+  <si>
+    <t>Terry Stop Bias Report</t>
   </si>
 </sst>
 </file>
@@ -538,20 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="88.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="88.26171875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -603,7 +609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -629,7 +635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -655,7 +661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -681,7 +687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -707,7 +713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -733,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -750,7 +756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -767,7 +773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -782,6 +788,23 @@
       </c>
       <c r="E10" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2894FA13-A16B-43D6-8DDF-CE22804EA155}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F62FC7DD-345E-43EB-BBA4-1F7FDE19D11D}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>Law Enforcement Response to People with Mental Illnesses in Benton County</t>
   </si>
   <si>
-    <t>https://doi.org/10.1146/annurev-criminol-011419-041541</t>
-  </si>
-  <si>
     <t>10.1146/annurev-criminol-011419-041541</t>
   </si>
   <si>
@@ -193,16 +190,27 @@
   </si>
   <si>
     <t>Terry Stop Bias Report</t>
+  </si>
+  <si>
+    <t>http://www.annualreviews.org/eprint/IPYXVNIBBNCW7DYXFM4P/full/10.1146/annurev-criminol-011419-041541</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,13 +233,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -729,11 +740,11 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -801,14 +812,17 @@
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{67241F56-07AF-4F0A-A074-A15C4D828424}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F62FC7DD-345E-43EB-BBA4-1F7FDE19D11D}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{65F290F2-9002-46D6-ACBF-614385077E27}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>type</t>
   </si>
@@ -193,6 +193,27 @@
   </si>
   <si>
     <t>http://www.annualreviews.org/eprint/IPYXVNIBBNCW7DYXFM4P/full/10.1146/annurev-criminol-011419-041541</t>
+  </si>
+  <si>
+    <t>RL Matsueda, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Differential Association Theory</t>
+  </si>
+  <si>
+    <t>Wiley Blackwell Encyclopedia of Sociology, 2nd Ed.</t>
+  </si>
+  <si>
+    <t>Decision-Making in Aleatory Contexts</t>
+  </si>
+  <si>
+    <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
+  </si>
+  <si>
+    <t>(Forthcoming)</t>
+  </si>
+  <si>
+    <t>(Invited, Under Preparation)</t>
   </si>
 </sst>
 </file>
@@ -555,20 +576,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="88.26171875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="88.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -620,7 +641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -646,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -672,7 +693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -698,7 +719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -724,7 +745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -750,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -767,7 +788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -784,7 +805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -801,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -816,6 +837,46 @@
       </c>
       <c r="E11" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{65F290F2-9002-46D6-ACBF-614385077E27}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAD25D97-1F90-4B70-8B3C-BA7974BEF814}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="7590" yWindow="8145" windowWidth="28710" windowHeight="11805" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>type</t>
   </si>
@@ -210,10 +210,40 @@
     <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
   </si>
   <si>
+    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
+  </si>
+  <si>
+    <t>Replication of Sampson &amp; Raudenbush (1999)</t>
+  </si>
+  <si>
+    <t>RL Matsueda, CC Lanfear, LR Beach</t>
+  </si>
+  <si>
+    <t>CC Lanfear, RL Matsueda</t>
+  </si>
+  <si>
+    <t>Property Crime, Fear of Crime, and Social Control of Homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>(In Preparation)</t>
+  </si>
+  <si>
+    <t>CC Lanfear, LR Beach, KA Snedker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Invited, In Preparation)</t>
+  </si>
+  <si>
     <t>(Forthcoming)</t>
   </si>
   <si>
-    <t>(Invited, Under Preparation)</t>
+    <t>Science</t>
   </si>
 </sst>
 </file>
@@ -576,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,8 +876,8 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12">
-        <v>2020</v>
+      <c r="C12" t="s">
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -855,19 +885,16 @@
       <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C13">
-        <v>2020</v>
+      <c r="C13" t="s">
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -875,8 +902,65 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAD25D97-1F90-4B70-8B3C-BA7974BEF814}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{6565B7E8-3E9B-47DB-BFE8-6EEC777B36BF}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="8145" windowWidth="28710" windowHeight="11805" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="6030" yWindow="2775" windowWidth="28710" windowHeight="16845" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>type</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Science</t>
+  </si>
+  <si>
+    <t>CC Lanfear, LR Beach, RL Matsueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race and Sanctioning: A Field Experiment </t>
+  </si>
+  <si>
+    <t>The Good Society: A Field Experiment in Social Capital</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +972,34 @@
         <v>69</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{67241F56-07AF-4F0A-A074-A15C4D828424}"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{6565B7E8-3E9B-47DB-BFE8-6EEC777B36BF}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E1AE400-2A28-4311-A63E-DFB94F428656}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2775" windowWidth="28710" windowHeight="16845" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="1860" yWindow="1695" windowWidth="28710" windowHeight="16845" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E1AE400-2A28-4311-A63E-DFB94F428656}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2E85E85-90EF-4C35-A2BA-8E5BBEA7FAAE}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1695" windowWidth="28710" windowHeight="16845" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="6930" yWindow="4815" windowWidth="27090" windowHeight="12030" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Wiley Blackwell Encyclopedia of Sociology, 2nd Ed.</t>
   </si>
   <si>
-    <t>Decision-Making in Aleatory Contexts</t>
-  </si>
-  <si>
     <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
   </si>
   <si>
@@ -237,15 +234,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(Invited, In Preparation)</t>
-  </si>
-  <si>
     <t>(Forthcoming)</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>CC Lanfear, LR Beach, RL Matsueda</t>
   </si>
   <si>
@@ -253,6 +244,9 @@
   </si>
   <si>
     <t>The Good Society: A Field Experiment in Social Capital</t>
+  </si>
+  <si>
+    <t>Collective Action, Rational Choice, and Gang Delinquency: Appreciating Short and Strodtbeck (1965)</t>
   </si>
 </sst>
 </file>
@@ -618,7 +612,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +880,7 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -897,107 +891,104 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
       <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2E85E85-90EF-4C35-A2BA-8E5BBEA7FAAE}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDA22298-346F-4815-96DF-1300FB8DAD88}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="4815" windowWidth="27090" windowHeight="12030" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="44745" yWindow="1590" windowWidth="20505" windowHeight="15885" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>Collective Action, Rational Choice, and Gang Delinquency: Appreciating Short and Strodtbeck (1965)</t>
+  </si>
+  <si>
+    <t>R de Buen Kalman, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Uses of Mexico City Bikeshare in the Aftermath of the 2017 Earthquake</t>
+  </si>
+  <si>
+    <t>The Effect of a Gas Shortage on Transit Use in Mexico City and Guadalajara</t>
   </si>
 </sst>
 </file>
@@ -609,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,6 +1000,34 @@
         <v>72</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{67241F56-07AF-4F0A-A074-A15C4D828424}"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDA22298-346F-4815-96DF-1300FB8DAD88}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F11B9B54-63E8-4270-8A5C-40E88AEADC43}"/>
   <bookViews>
-    <workbookView xWindow="44745" yWindow="1590" windowWidth="20505" windowHeight="15885" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>type</t>
   </si>
@@ -256,13 +256,16 @@
   </si>
   <si>
     <t>The Effect of a Gas Shortage on Transit Use in Mexico City and Guadalajara</t>
+  </si>
+  <si>
+    <t>Family Dynamics, Birth Timing, and Child Temperament: A Dynamic Sibling Model Approach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +280,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,9 +310,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1039,20 @@
         <v>76</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{67241F56-07AF-4F0A-A074-A15C4D828424}"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F11B9B54-63E8-4270-8A5C-40E88AEADC43}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5451723-44DF-47B8-945C-8CED90FF4905}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="41250" yWindow="765" windowWidth="28800" windowHeight="14775" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>The Effect of a Gas Shortage on Transit Use in Mexico City and Guadalajara</t>
-  </si>
-  <si>
-    <t>Family Dynamics, Birth Timing, and Child Temperament: A Dynamic Sibling Model Approach</t>
   </si>
 </sst>
 </file>
@@ -632,7 +629,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,18 +1037,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5451723-44DF-47B8-945C-8CED90FF4905}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00810CF5-D2F2-43FB-810C-B6324FF6AE6E}"/>
   <bookViews>
-    <workbookView xWindow="41250" yWindow="765" windowWidth="28800" windowHeight="14775" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="5970" yWindow="3285" windowWidth="28800" windowHeight="15600" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>type</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>The Effect of a Gas Shortage on Transit Use in Mexico City and Guadalajara</t>
+  </si>
+  <si>
+    <t>https://www.routledge.com/Social-Bridges-and-Contexts-in-Criminology-and-Sociology-Reflections-on/Hughes-Broidy/p/book/9780367359423</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,8 +916,8 @@
       <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
-        <v>69</v>
+      <c r="C13">
+        <v>2020</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
@@ -923,7 +926,7 @@
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00810CF5-D2F2-43FB-810C-B6324FF6AE6E}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DCA8211-C129-47B5-8DA4-CCFFFCA3818B}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="3285" windowWidth="28800" windowHeight="15600" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="42525" yWindow="915" windowWidth="23520" windowHeight="15600" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,15 +66,9 @@
     <t>10.1111/cico.12346</t>
   </si>
   <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/cico.12346</t>
-  </si>
-  <si>
     <t>10.1177/0022042613491100</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/doi/abs/10.1177/0022042613491100</t>
-  </si>
-  <si>
     <t>SM Akins, BC Burkhardt, CC Lanfear</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>10.1177/0887403414559268</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/doi/abs/10.1177/0887403414559268</t>
-  </si>
-  <si>
     <t>CC Lanfear, SM Akins, CJ Mosher</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>10.1080/01639625.2012.749149</t>
   </si>
   <si>
-    <t>https://www.tandfonline.com/doi/abs/10.1080/01639625.2012.749149</t>
-  </si>
-  <si>
     <t>BC Burkhardt, SM Akins, J Sassaman, S Jackson, K Elwer, CC Lanfear, M Amorim, KM Stevens</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>10.1177/0306624X15599393</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/doi/abs/10.1177/0306624X15599393</t>
-  </si>
-  <si>
     <t>issue</t>
   </si>
   <si>
@@ -192,9 +177,6 @@
     <t>Terry Stop Bias Report</t>
   </si>
   <si>
-    <t>http://www.annualreviews.org/eprint/IPYXVNIBBNCW7DYXFM4P/full/10.1146/annurev-criminol-011419-041541</t>
-  </si>
-  <si>
     <t>RL Matsueda, CC Lanfear</t>
   </si>
   <si>
@@ -258,7 +240,25 @@
     <t>The Effect of a Gas Shortage on Transit Use in Mexico City and Guadalajara</t>
   </si>
   <si>
-    <t>https://www.routledge.com/Social-Bridges-and-Contexts-in-Criminology-and-Sociology-Reflections-on/Hughes-Broidy/p/book/9780367359423</t>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Annual%20Review%20of%20Criminology.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Formal%20Social%20Control%20in%20Changing%20Neighborhoods.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Law%20Enforcement%20Collaboration.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Sexual%20Minority%20Drug%20Use.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Short%20and%20Strodtbeck.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Law%20Enforcement%20Response.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
   </si>
 </sst>
 </file>
@@ -310,10 +310,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,14 +633,14 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="88.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,14 +659,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,16 +683,16 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -708,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,25 +726,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,25 +752,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,25 +778,25 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,22 +804,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -826,70 +827,70 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,16 +898,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,139 +915,140 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{67241F56-07AF-4F0A-A074-A15C4D828424}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{EA6B9335-7227-4E21-9D58-E9AEE5D6CA68}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{41D76D22-455D-4D8F-A64B-7952CA609640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DCA8211-C129-47B5-8DA4-CCFFFCA3818B}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50C751B-EC54-4B9B-AEE4-43A07F5EDEAA}"/>
   <bookViews>
-    <workbookView xWindow="42525" yWindow="915" windowWidth="23520" windowHeight="15600" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -259,6 +259,33 @@
   </si>
   <si>
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
+  </si>
+  <si>
+    <t>(Under Review)</t>
+  </si>
+  <si>
+    <t>Collective Efficacy, Opportunity, and the Built Environment</t>
+  </si>
+  <si>
+    <t>Under review at Criminology</t>
+  </si>
+  <si>
+    <t>In preparation</t>
+  </si>
+  <si>
+    <t>A Situational Theory of Neighborhood Crime</t>
+  </si>
+  <si>
+    <t>Collective Efficacy and Formal Social Control</t>
+  </si>
+  <si>
+    <t>In planning</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/built_environment_ce</t>
+  </si>
+  <si>
+    <t>(In Planning)</t>
   </si>
 </sst>
 </file>
@@ -630,20 +657,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -721,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -747,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -773,7 +800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -799,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -825,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -842,7 +869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -859,7 +886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -876,7 +903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -893,7 +920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -910,7 +937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -930,7 +957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -943,11 +970,14 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -961,13 +991,13 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -980,11 +1010,14 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -997,8 +1030,11 @@
       <c r="D17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1011,8 +1047,11 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1020,13 +1059,16 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1034,14 +1076,68 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{4CB552C3-CF36-4963-A779-1A56A658881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50C751B-EC54-4B9B-AEE4-43A07F5EDEAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E7404-ED19-4998-9DC5-63088489F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{89DB09BC-2BA0-43D2-AE3C-68FBD892520E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,15 +261,6 @@
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
   </si>
   <si>
-    <t>(Under Review)</t>
-  </si>
-  <si>
-    <t>Collective Efficacy, Opportunity, and the Built Environment</t>
-  </si>
-  <si>
-    <t>Under review at Criminology</t>
-  </si>
-  <si>
     <t>In preparation</t>
   </si>
   <si>
@@ -286,6 +277,15 @@
   </si>
   <si>
     <t>(In Planning)</t>
+  </si>
+  <si>
+    <t>Collective Efficacy and the Built Environment</t>
+  </si>
+  <si>
+    <t>Criminology</t>
+  </si>
+  <si>
+    <t>60(2)</t>
   </si>
 </sst>
 </file>
@@ -656,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48047B76-05EE-4E4F-AC6F-6C37950330D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
@@ -991,7 +991,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>62</v>
@@ -1011,13 +1011,13 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1031,10 +1031,10 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1048,10 +1048,10 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1059,16 +1059,16 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1076,36 +1076,39 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
+      <c r="C21">
+        <v>2022</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1116,13 +1119,13 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1133,16 +1136,16 @@
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{EA6B9335-7227-4E21-9D58-E9AEE5D6CA68}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{41D76D22-455D-4D8F-A64B-7952CA609640}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E7404-ED19-4998-9DC5-63088489F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4BF817-60F1-40D3-A573-DBA60EBAD0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>CC Lanfear, RL Matsueda</t>
   </si>
   <si>
-    <t>Property Crime, Fear of Crime, and Social Control of Homelessness in Seattle</t>
-  </si>
-  <si>
     <t>prep</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>60(2)</t>
+  </si>
+  <si>
+    <t>Property Crime and the Social Control of Homelessness</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -713,7 +713,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -765,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -791,7 +791,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -843,7 +843,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -928,7 +928,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -948,146 +948,146 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -1096,50 +1096,50 @@
         <v>2022</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
         <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4BF817-60F1-40D3-A573-DBA60EBAD0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE9001-120D-455E-BC05-A94204B4C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Property Crime and the Social Control of Homelessness</t>
+  </si>
+  <si>
+    <t>10.1111/1745-9125.12304</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1104,6 +1107,9 @@
       <c r="F21" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
       <c r="H21" t="s">
         <v>85</v>
       </c>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE9001-120D-455E-BC05-A94204B4C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5DCE9001-120D-455E-BC05-A94204B4C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C12E45-DA4B-44DB-82D1-66C7FE333C2D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37620" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>In planning</t>
   </si>
   <si>
-    <t>https://github.com/clanfear/built_environment_ce</t>
-  </si>
-  <si>
     <t>(In Planning)</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>10.1111/1745-9125.12304</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Collective%20Efficacy%20and%20the%20Built%20Environment.pdf</t>
   </si>
 </sst>
 </file>
@@ -663,17 +663,17 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.41796875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -725,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,7 +803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -829,7 +829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -872,7 +872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -889,7 +889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -906,7 +906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -980,7 +980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
@@ -1020,7 +1020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
@@ -1071,7 +1071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
@@ -1088,7 +1088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1099,22 +1099,22 @@
         <v>2022</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1152,8 +1152,9 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F21" r:id="rId3" xr:uid="{3187851B-CCC5-43F9-9464-4185BCEEE5EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5DCE9001-120D-455E-BC05-A94204B4C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C12E45-DA4B-44DB-82D1-66C7FE333C2D}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{5DCE9001-120D-455E-BC05-A94204B4C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567D1DCE-1447-4E59-B73D-65D73BFEBAE4}"/>
   <bookViews>
-    <workbookView xWindow="-37620" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="3300" windowWidth="36105" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
   </si>
   <si>
-    <t>Replication of Sampson &amp; Raudenbush (1999)</t>
-  </si>
-  <si>
-    <t>RL Matsueda, CC Lanfear, LR Beach</t>
-  </si>
-  <si>
     <t>CC Lanfear, RL Matsueda</t>
   </si>
   <si>
@@ -213,18 +207,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(Forthcoming)</t>
-  </si>
-  <si>
     <t>CC Lanfear, LR Beach, RL Matsueda</t>
   </si>
   <si>
-    <t xml:space="preserve">Race and Sanctioning: A Field Experiment </t>
-  </si>
-  <si>
-    <t>The Good Society: A Field Experiment in Social Capital</t>
-  </si>
-  <si>
     <t>Collective Action, Rational Choice, and Gang Delinquency: Appreciating Short and Strodtbeck (1965)</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Uses of Mexico City Bikeshare in the Aftermath of the 2017 Earthquake</t>
   </si>
   <si>
-    <t>The Effect of a Gas Shortage on Transit Use in Mexico City and Guadalajara</t>
-  </si>
-  <si>
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Annual%20Review%20of%20Criminology.pdf</t>
   </si>
   <si>
@@ -258,21 +240,12 @@
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
   </si>
   <si>
-    <t>In preparation</t>
-  </si>
-  <si>
     <t>A Situational Theory of Neighborhood Crime</t>
   </si>
   <si>
     <t>Collective Efficacy and Formal Social Control</t>
   </si>
   <si>
-    <t>In planning</t>
-  </si>
-  <si>
-    <t>(In Planning)</t>
-  </si>
-  <si>
     <t>Collective Efficacy and the Built Environment</t>
   </si>
   <si>
@@ -282,13 +255,40 @@
     <t>60(2)</t>
   </si>
   <si>
-    <t>Property Crime and the Social Control of Homelessness</t>
-  </si>
-  <si>
     <t>10.1111/1745-9125.12304</t>
   </si>
   <si>
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Collective%20Efficacy%20and%20the%20Built%20Environment.pdf</t>
+  </si>
+  <si>
+    <t>Property Crime and the Social Control of Homelessness in Seattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorder, Race, and Sanctioning: A Field Experiment </t>
+  </si>
+  <si>
+    <t>KA Snedker, J McKinney, CC Lanfear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tents as the New Landscape for Urban Inequality: Homelessness pre- and post-COVID </t>
+  </si>
+  <si>
+    <t>CC Lanfear, DS Kirk</t>
+  </si>
+  <si>
+    <t>Manuscript in preparation</t>
+  </si>
+  <si>
+    <t>Manuscript in revision</t>
+  </si>
+  <si>
+    <t>Research in progress</t>
+  </si>
+  <si>
+    <t>Airbnb and Crime: The Impact of Short-Term Lettings on Community Cohesion and Safety</t>
+  </si>
+  <si>
+    <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -742,7 +742,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -794,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -930,8 +930,8 @@
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -951,208 +951,208 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F21" r:id="rId3" xr:uid="{3187851B-CCC5-43F9-9464-4185BCEEE5EE}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{3187851B-CCC5-43F9-9464-4185BCEEE5EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{5DCE9001-120D-455E-BC05-A94204B4C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567D1DCE-1447-4E59-B73D-65D73BFEBAE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F48D8FA-D90A-444D-A195-370A9793D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3300" windowWidth="36105" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>type</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
+  </si>
+  <si>
+    <t>(Under Review)</t>
+  </si>
+  <si>
+    <t>Lead Exposure and Antisocial Behavior: A Systematic Review Protocol</t>
+  </si>
+  <si>
+    <t>Under review at Environment International</t>
+  </si>
+  <si>
+    <t>EF Kirrane, RM Shaffer, J Forsyth, G Ferraro, C Hill, L Carlson, K Hester, CC Lanfear, H Hu</t>
   </si>
 </sst>
 </file>
@@ -660,20 +672,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.7890625" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -725,7 +738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -777,7 +790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -829,7 +842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -855,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -872,7 +885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -889,7 +902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -906,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -923,7 +936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -940,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -960,7 +973,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -980,7 +993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1146,6 +1159,23 @@
       </c>
       <c r="E23" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F48D8FA-D90A-444D-A195-370A9793D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346847F1-860E-4CD6-A640-7C6136D6B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33900" yWindow="3555" windowWidth="17580" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,16 +291,16 @@
     <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
   </si>
   <si>
-    <t>(Under Review)</t>
-  </si>
-  <si>
     <t>Lead Exposure and Antisocial Behavior: A Systematic Review Protocol</t>
   </si>
   <si>
-    <t>Under review at Environment International</t>
-  </si>
-  <si>
     <t>EF Kirrane, RM Shaffer, J Forsyth, G Ferraro, C Hill, L Carlson, K Hester, CC Lanfear, H Hu</t>
+  </si>
+  <si>
+    <t>Environment International</t>
+  </si>
+  <si>
+    <t>(Forthcoming)</t>
   </si>
 </sst>
 </file>
@@ -674,19 +674,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7890625" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.41796875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -738,7 +738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -790,7 +790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -816,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -842,7 +842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -885,7 +885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -902,7 +902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -919,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -936,7 +936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -953,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -973,7 +973,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -993,7 +993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1161,18 +1161,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles.lanfear\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346847F1-860E-4CD6-A640-7C6136D6B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33900" yWindow="3555" windowWidth="17580" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33900" yWindow="3555" windowWidth="17580" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -294,10 +293,13 @@
     <t>Lead Exposure and Antisocial Behavior: A Systematic Review Protocol</t>
   </si>
   <si>
-    <t>EF Kirrane, RM Shaffer, J Forsyth, G Ferraro, C Hill, L Carlson, K Hester, CC Lanfear, H Hu</t>
-  </si>
-  <si>
     <t>Environment International</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.envint.2022.107438</t>
+  </si>
+  <si>
+    <t>RM Shaffer, JE Forsyth, G Ferraro, C Till, LM Carlson, K Hester, A Haddock, J Strawbridge, CC Lanfear, H Hu, EF Kirrane</t>
   </si>
   <si>
     <t>(Forthcoming)</t>
@@ -306,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,11 +354,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,25 +1169,29 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
       </c>
       <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{3187851B-CCC5-43F9-9464-4185BCEEE5EE}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
+    <hyperlink ref="F24" r:id="rId4" tooltip="Persistent link using digital object identifier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles.lanfear\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210AA9D2-154C-4D23-B815-C72D01A105EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33900" yWindow="3555" windowWidth="17580" windowHeight="15435"/>
+    <workbookView xWindow="-31830" yWindow="3030" windowWidth="26850" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>type</t>
   </si>
@@ -300,15 +301,12 @@
   </si>
   <si>
     <t>RM Shaffer, JE Forsyth, G Ferraro, C Till, LM Carlson, K Hester, A Haddock, J Strawbridge, CC Lanfear, H Hu, EF Kirrane</t>
-  </si>
-  <si>
-    <t>(Forthcoming)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,8 +1169,8 @@
       <c r="B24" t="s">
         <v>91</v>
       </c>
-      <c r="C24" t="s">
-        <v>92</v>
+      <c r="C24">
+        <v>2022</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -1183,13 +1181,16 @@
       <c r="F24" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="H24">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
-    <hyperlink ref="F24" r:id="rId4" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F24" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210AA9D2-154C-4D23-B815-C72D01A105EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B59DA-2D37-4CE6-B16F-7198CADEF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31830" yWindow="3030" windowWidth="26850" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7850" yWindow="3100" windowWidth="21200" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>RM Shaffer, JE Forsyth, G Ferraro, C Till, LM Carlson, K Hester, A Haddock, J Strawbridge, CC Lanfear, H Hu, EF Kirrane</t>
+  </si>
+  <si>
+    <t>Expert Report: Hunters Capital, LLC v. City of Seattle (client)</t>
+  </si>
+  <si>
+    <t>Case No. 20-cv-00983 TSZ, US District Court, Western District of Washington</t>
   </si>
 </sst>
 </file>
@@ -673,21 +679,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -739,7 +745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -765,7 +771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -791,7 +797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -817,7 +823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -843,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -869,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -886,7 +892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -903,7 +909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -920,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -937,7 +943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -954,7 +960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -974,7 +980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1183,6 +1189,23 @@
       </c>
       <c r="H24">
         <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B59DA-2D37-4CE6-B16F-7198CADEF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3E708D-ECC1-4F4D-A100-E5E5955D0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7850" yWindow="3100" windowWidth="21200" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -307,6 +307,24 @@
   </si>
   <si>
     <t>Case No. 20-cv-00983 TSZ, US District Court, Western District of Washington</t>
+  </si>
+  <si>
+    <t>CC Lanfear, R Bucci, DS Kirk, RJ Sampson</t>
+  </si>
+  <si>
+    <t>JAMA Network Open</t>
+  </si>
+  <si>
+    <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2001</t>
+  </si>
+  <si>
+    <t>6(5)</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2023.12465</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2023.12465</t>
   </si>
 </sst>
 </file>
@@ -679,21 +697,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.7890625" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.47265625" customWidth="1"/>
+    <col min="6" max="6" width="42.47265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -745,7 +763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -771,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -797,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -823,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -849,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -875,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -892,7 +910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -909,7 +927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -926,7 +944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -943,7 +961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -960,7 +978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -980,7 +998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1117,7 +1135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1168,7 +1186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1206,6 +1224,32 @@
       </c>
       <c r="E25" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1214,8 +1258,9 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F24" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{E6683F30-ABEA-46D8-B728-ACC89BF6A6FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3E708D-ECC1-4F4D-A100-E5E5955D0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00339AD0-D7CF-4CE2-BC37-49306FB5C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,9 +315,6 @@
     <t>JAMA Network Open</t>
   </si>
   <si>
-    <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2001</t>
-  </si>
-  <si>
     <t>6(5)</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2023.12465</t>
+  </si>
+  <si>
+    <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
   </si>
 </sst>
 </file>
@@ -700,18 +700,18 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7890625" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.47265625" customWidth="1"/>
-    <col min="6" max="6" width="42.47265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -763,7 +763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -789,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -815,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -841,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -910,7 +910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -927,7 +927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -944,7 +944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -961,7 +961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -978,7 +978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -998,7 +998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1237,19 +1237,19 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00339AD0-D7CF-4CE2-BC37-49306FB5C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0274D-D1B3-4933-B204-D45E02A694D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
+  </si>
+  <si>
+    <t>Disentangling Gun Ownership and Leanings to Political Violence in Unstable Times</t>
+  </si>
+  <si>
+    <t>RJ Sampson, CC Lanfear</t>
+  </si>
+  <si>
+    <t>7(4)</t>
   </si>
 </sst>
 </file>
@@ -401,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,21 +706,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -763,7 +772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -789,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -815,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -841,7 +850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -867,7 +876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -893,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -910,7 +919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -927,7 +936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -944,7 +953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -961,7 +970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -978,7 +987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1250,6 +1259,26 @@
       </c>
       <c r="H26" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0274D-D1B3-4933-B204-D45E02A694D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60813350-9125-4AAB-862A-AE07E3D29BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>7(4)</t>
+  </si>
+  <si>
+    <t>R Wickes, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Collective Efficacy and Crime in Urban Neighborhoods</t>
+  </si>
+  <si>
+    <t>Edward Elgar Publishing</t>
+  </si>
+  <si>
+    <t>Handbook on Cities and Crime.</t>
   </si>
 </sst>
 </file>
@@ -706,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,6 +1293,26 @@
         <v>102</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>2024</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60813350-9125-4AAB-862A-AE07E3D29BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7192F7-2561-40AE-BAE3-014F22C2D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Handbook on Cities and Crime.</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2024.5066</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2024.5066</t>
   </si>
 </sst>
 </file>
@@ -720,19 +726,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.7890625" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.47265625" customWidth="1"/>
+    <col min="6" max="6" width="42.47265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -784,7 +790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -810,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -836,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -862,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -888,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -914,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -931,7 +937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -948,7 +954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -965,7 +971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -982,7 +988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1289,11 +1295,17 @@
       <c r="E27" t="s">
         <v>95</v>
       </c>
+      <c r="F27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
       <c r="H27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1320,8 +1332,9 @@
     <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F24" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="F26" r:id="rId5" xr:uid="{E6683F30-ABEA-46D8-B728-ACC89BF6A6FE}"/>
+    <hyperlink ref="F27" r:id="rId6" xr:uid="{4C28EB21-A683-48FA-B23B-9C7A90D47CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7192F7-2561-40AE-BAE3-014F22C2D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF9D77-9D09-4497-87A7-CF2EDF8D4AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9732" yWindow="-15816" windowWidth="23040" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -996,7 +996,7 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF9D77-9D09-4497-87A7-CF2EDF8D4AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2BDF9D77-9D09-4497-87A7-CF2EDF8D4AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E2919A-2A16-42F4-89A0-99998AF11712}"/>
   <bookViews>
-    <workbookView xWindow="9732" yWindow="-15816" windowWidth="23040" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -129,229 +129,232 @@
     <t>City &amp; Community</t>
   </si>
   <si>
+    <t>Broken Windows, Informal Social Control, and Crime: Assessing Causality in Empirical Studies</t>
+  </si>
+  <si>
+    <t>CC Lanfear, RL Matsueda, LR Beach</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>RD Crutchfield, A Harris, CC Lanfear, TA Thomas</t>
+  </si>
+  <si>
+    <t>UWPD Racial Bias in Contacts Analysis</t>
+  </si>
+  <si>
+    <t>Office of the University of Washington President</t>
+  </si>
+  <si>
+    <t>CC Lanfear</t>
+  </si>
+  <si>
+    <t>SM Akins, BC Burkhardt, CC Lanfear, KM Stevens, M Amorim</t>
+  </si>
+  <si>
+    <t>2013 County Jail Survey Executive Summary</t>
+  </si>
+  <si>
+    <t>Association of Oregon Community Mental Health Programs</t>
+  </si>
+  <si>
+    <t>Benton County Sheriff’s Office and the Willamette Criminal Justice Commission</t>
+  </si>
+  <si>
+    <t>Law Enforcement Response to People with Mental Illnesses in Benton County</t>
+  </si>
+  <si>
+    <t>10.1146/annurev-criminol-011419-041541</t>
+  </si>
+  <si>
+    <t>Seattle Police Department</t>
+  </si>
+  <si>
+    <t>Terry Stop Bias Report</t>
+  </si>
+  <si>
+    <t>RL Matsueda, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Differential Association Theory</t>
+  </si>
+  <si>
+    <t>Wiley Blackwell Encyclopedia of Sociology, 2nd Ed.</t>
+  </si>
+  <si>
+    <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
+  </si>
+  <si>
+    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
+  </si>
+  <si>
+    <t>CC Lanfear, RL Matsueda</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>(In Preparation)</t>
+  </si>
+  <si>
+    <t>CC Lanfear, LR Beach, KA Snedker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CC Lanfear, LR Beach, RL Matsueda</t>
+  </si>
+  <si>
+    <t>Collective Action, Rational Choice, and Gang Delinquency: Appreciating Short and Strodtbeck (1965)</t>
+  </si>
+  <si>
+    <t>R de Buen Kalman, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Uses of Mexico City Bikeshare in the Aftermath of the 2017 Earthquake</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Annual%20Review%20of%20Criminology.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Formal%20Social%20Control%20in%20Changing%20Neighborhoods.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Law%20Enforcement%20Collaboration.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Sexual%20Minority%20Drug%20Use.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Short%20and%20Strodtbeck.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Law%20Enforcement%20Response.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
+  </si>
+  <si>
+    <t>A Situational Theory of Neighborhood Crime</t>
+  </si>
+  <si>
+    <t>Collective Efficacy and Formal Social Control</t>
+  </si>
+  <si>
+    <t>Collective Efficacy and the Built Environment</t>
+  </si>
+  <si>
+    <t>Criminology</t>
+  </si>
+  <si>
+    <t>60(2)</t>
+  </si>
+  <si>
+    <t>10.1111/1745-9125.12304</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Collective%20Efficacy%20and%20the%20Built%20Environment.pdf</t>
+  </si>
+  <si>
+    <t>Property Crime and the Social Control of Homelessness in Seattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorder, Race, and Sanctioning: A Field Experiment </t>
+  </si>
+  <si>
+    <t>KA Snedker, J McKinney, CC Lanfear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tents as the New Landscape for Urban Inequality: Homelessness pre- and post-COVID </t>
+  </si>
+  <si>
+    <t>CC Lanfear, DS Kirk</t>
+  </si>
+  <si>
+    <t>Manuscript in preparation</t>
+  </si>
+  <si>
+    <t>Manuscript in revision</t>
+  </si>
+  <si>
+    <t>Research in progress</t>
+  </si>
+  <si>
+    <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
+  </si>
+  <si>
+    <t>Lead Exposure and Antisocial Behavior: A Systematic Review Protocol</t>
+  </si>
+  <si>
+    <t>Environment International</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.envint.2022.107438</t>
+  </si>
+  <si>
+    <t>RM Shaffer, JE Forsyth, G Ferraro, C Till, LM Carlson, K Hester, A Haddock, J Strawbridge, CC Lanfear, H Hu, EF Kirrane</t>
+  </si>
+  <si>
+    <t>Expert Report: Hunters Capital, LLC v. City of Seattle (client)</t>
+  </si>
+  <si>
+    <t>Case No. 20-cv-00983 TSZ, US District Court, Western District of Washington</t>
+  </si>
+  <si>
+    <t>CC Lanfear, R Bucci, DS Kirk, RJ Sampson</t>
+  </si>
+  <si>
+    <t>JAMA Network Open</t>
+  </si>
+  <si>
+    <t>6(5)</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2023.12465</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2023.12465</t>
+  </si>
+  <si>
+    <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
+  </si>
+  <si>
+    <t>Disentangling Gun Ownership and Leanings to Political Violence in Unstable Times</t>
+  </si>
+  <si>
+    <t>RJ Sampson, CC Lanfear</t>
+  </si>
+  <si>
+    <t>7(4)</t>
+  </si>
+  <si>
+    <t>R Wickes, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Collective Efficacy and Crime in Urban Neighborhoods</t>
+  </si>
+  <si>
+    <t>Edward Elgar Publishing</t>
+  </si>
+  <si>
+    <t>Handbook on Cities and Crime.</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2024.5066</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2024.5066</t>
+  </si>
+  <si>
+    <t>The Promise and Perils of the Sharing Economy: The Impact of Airbnb Lettings on Crime</t>
+  </si>
+  <si>
+    <t>(Forthcoming)</t>
+  </si>
+  <si>
     <t>Annual Review of Criminology</t>
-  </si>
-  <si>
-    <t>Broken Windows, Informal Social Control, and Crime: Assessing Causality in Empirical Studies</t>
-  </si>
-  <si>
-    <t>CC Lanfear, RL Matsueda, LR Beach</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>RD Crutchfield, A Harris, CC Lanfear, TA Thomas</t>
-  </si>
-  <si>
-    <t>UWPD Racial Bias in Contacts Analysis</t>
-  </si>
-  <si>
-    <t>Office of the University of Washington President</t>
-  </si>
-  <si>
-    <t>CC Lanfear</t>
-  </si>
-  <si>
-    <t>SM Akins, BC Burkhardt, CC Lanfear, KM Stevens, M Amorim</t>
-  </si>
-  <si>
-    <t>2013 County Jail Survey Executive Summary</t>
-  </si>
-  <si>
-    <t>Association of Oregon Community Mental Health Programs</t>
-  </si>
-  <si>
-    <t>Benton County Sheriff’s Office and the Willamette Criminal Justice Commission</t>
-  </si>
-  <si>
-    <t>Law Enforcement Response to People with Mental Illnesses in Benton County</t>
-  </si>
-  <si>
-    <t>10.1146/annurev-criminol-011419-041541</t>
-  </si>
-  <si>
-    <t>Seattle Police Department</t>
-  </si>
-  <si>
-    <t>Terry Stop Bias Report</t>
-  </si>
-  <si>
-    <t>RL Matsueda, CC Lanfear</t>
-  </si>
-  <si>
-    <t>Differential Association Theory</t>
-  </si>
-  <si>
-    <t>Wiley Blackwell Encyclopedia of Sociology, 2nd Ed.</t>
-  </si>
-  <si>
-    <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
-  </si>
-  <si>
-    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
-  </si>
-  <si>
-    <t>CC Lanfear, RL Matsueda</t>
-  </si>
-  <si>
-    <t>prep</t>
-  </si>
-  <si>
-    <t>(In Preparation)</t>
-  </si>
-  <si>
-    <t>CC Lanfear, LR Beach, KA Snedker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CC Lanfear, LR Beach, RL Matsueda</t>
-  </si>
-  <si>
-    <t>Collective Action, Rational Choice, and Gang Delinquency: Appreciating Short and Strodtbeck (1965)</t>
-  </si>
-  <si>
-    <t>R de Buen Kalman, CC Lanfear</t>
-  </si>
-  <si>
-    <t>Uses of Mexico City Bikeshare in the Aftermath of the 2017 Earthquake</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Annual%20Review%20of%20Criminology.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Formal%20Social%20Control%20in%20Changing%20Neighborhoods.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Law%20Enforcement%20Collaboration.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Sexual%20Minority%20Drug%20Use.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Short%20and%20Strodtbeck.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Law%20Enforcement%20Response.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
-  </si>
-  <si>
-    <t>A Situational Theory of Neighborhood Crime</t>
-  </si>
-  <si>
-    <t>Collective Efficacy and Formal Social Control</t>
-  </si>
-  <si>
-    <t>Collective Efficacy and the Built Environment</t>
-  </si>
-  <si>
-    <t>Criminology</t>
-  </si>
-  <si>
-    <t>60(2)</t>
-  </si>
-  <si>
-    <t>10.1111/1745-9125.12304</t>
-  </si>
-  <si>
-    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Collective%20Efficacy%20and%20the%20Built%20Environment.pdf</t>
-  </si>
-  <si>
-    <t>Property Crime and the Social Control of Homelessness in Seattle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorder, Race, and Sanctioning: A Field Experiment </t>
-  </si>
-  <si>
-    <t>KA Snedker, J McKinney, CC Lanfear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tents as the New Landscape for Urban Inequality: Homelessness pre- and post-COVID </t>
-  </si>
-  <si>
-    <t>CC Lanfear, DS Kirk</t>
-  </si>
-  <si>
-    <t>Manuscript in preparation</t>
-  </si>
-  <si>
-    <t>Manuscript in revision</t>
-  </si>
-  <si>
-    <t>Research in progress</t>
-  </si>
-  <si>
-    <t>Airbnb and Crime: The Impact of Short-Term Lettings on Community Cohesion and Safety</t>
-  </si>
-  <si>
-    <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
-  </si>
-  <si>
-    <t>Lead Exposure and Antisocial Behavior: A Systematic Review Protocol</t>
-  </si>
-  <si>
-    <t>Environment International</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.envint.2022.107438</t>
-  </si>
-  <si>
-    <t>RM Shaffer, JE Forsyth, G Ferraro, C Till, LM Carlson, K Hester, A Haddock, J Strawbridge, CC Lanfear, H Hu, EF Kirrane</t>
-  </si>
-  <si>
-    <t>Expert Report: Hunters Capital, LLC v. City of Seattle (client)</t>
-  </si>
-  <si>
-    <t>Case No. 20-cv-00983 TSZ, US District Court, Western District of Washington</t>
-  </si>
-  <si>
-    <t>CC Lanfear, R Bucci, DS Kirk, RJ Sampson</t>
-  </si>
-  <si>
-    <t>JAMA Network Open</t>
-  </si>
-  <si>
-    <t>6(5)</t>
-  </si>
-  <si>
-    <t>10.1001/jamanetworkopen.2023.12465</t>
-  </si>
-  <si>
-    <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2023.12465</t>
-  </si>
-  <si>
-    <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
-  </si>
-  <si>
-    <t>Disentangling Gun Ownership and Leanings to Political Violence in Unstable Times</t>
-  </si>
-  <si>
-    <t>RJ Sampson, CC Lanfear</t>
-  </si>
-  <si>
-    <t>7(4)</t>
-  </si>
-  <si>
-    <t>R Wickes, CC Lanfear</t>
-  </si>
-  <si>
-    <t>Collective Efficacy and Crime in Urban Neighborhoods</t>
-  </si>
-  <si>
-    <t>Edward Elgar Publishing</t>
-  </si>
-  <si>
-    <t>Handbook on Cities and Crime.</t>
-  </si>
-  <si>
-    <t>10.1001/jamanetworkopen.2024.5066</t>
-  </si>
-  <si>
-    <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2024.5066</t>
   </si>
 </sst>
 </file>
@@ -425,6 +428,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,19 +733,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7890625" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.47265625" customWidth="1"/>
-    <col min="6" max="6" width="42.47265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -781,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -790,7 +797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -807,7 +814,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -816,7 +823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -833,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -842,7 +849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -859,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -868,7 +875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -885,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -894,435 +901,435 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
       <c r="E17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
       <c r="E23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>2022</v>
       </c>
       <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H24">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>2022</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" t="s">
-        <v>97</v>
-      </c>
       <c r="H26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>2024</v>
       </c>
       <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28">
         <v>2024</v>
       </c>
       <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2BDF9D77-9D09-4497-87A7-CF2EDF8D4AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E2919A-2A16-42F4-89A0-99998AF11712}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF424A-2EA3-47DD-BE6F-E3D73C242FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>Annual Review of Criminology</t>
+  </si>
+  <si>
+    <t>CC Lanfear, DS Kirk, RJ Sampson</t>
+  </si>
+  <si>
+    <t>Dual Pathways of Concealed Gun Carrying and Use from Adolescence to Adulthood over a 25-Year Era of Change</t>
+  </si>
+  <si>
+    <t>Science Advances</t>
   </si>
 </sst>
 </file>
@@ -428,10 +437,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,21 +736,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.83984375" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -797,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -823,7 +828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -849,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -875,7 +880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -901,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -927,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -944,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -961,7 +966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -978,7 +983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1152,7 +1157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1169,7 +1174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1291,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1330,6 +1335,23 @@
       </c>
       <c r="H28" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF424A-2EA3-47DD-BE6F-E3D73C242FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,15 +51,9 @@
     <t>article</t>
   </si>
   <si>
-    <t>Formal Social Control in Changing Neighborhoods: Racial Implications of Neighborhood Context on Reactive Policing</t>
-  </si>
-  <si>
     <t>CC Lanfear, LR Beach, TA Thomas</t>
   </si>
   <si>
-    <t>Patterns and Correlates of Adult American Indian Substance Use</t>
-  </si>
-  <si>
     <t>SM Akins, CC Lanfear, S Cline, CJ Mosher</t>
   </si>
   <si>
@@ -72,27 +66,18 @@
     <t>SM Akins, BC Burkhardt, CC Lanfear</t>
   </si>
   <si>
-    <t>Law Enforcement Response to “Frequent Fliers” An Examination of High-Frequency Contacts Between Police and Justice-Involved Persons With Mental Illness</t>
-  </si>
-  <si>
     <t>10.1177/0887403414559268</t>
   </si>
   <si>
     <t>CC Lanfear, SM Akins, CJ Mosher</t>
   </si>
   <si>
-    <t>Examining the Relationship of Substance Use and Sexual Orientation</t>
-  </si>
-  <si>
     <t>10.1080/01639625.2012.749149</t>
   </si>
   <si>
     <t>BC Burkhardt, SM Akins, J Sassaman, S Jackson, K Elwer, CC Lanfear, M Amorim, KM Stevens</t>
   </si>
   <si>
-    <t>University Researcher and Law Enforcement Collaboration: Lessons from a Study of Justice-Involved Persons with Suspected Mental Illness</t>
-  </si>
-  <si>
     <t>10.1177/0306624X15599393</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>City &amp; Community</t>
   </si>
   <si>
-    <t>Broken Windows, Informal Social Control, and Crime: Assessing Causality in Empirical Studies</t>
-  </si>
-  <si>
     <t>CC Lanfear, RL Matsueda, LR Beach</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Benton County Sheriff’s Office and the Willamette Criminal Justice Commission</t>
   </si>
   <si>
-    <t>Law Enforcement Response to People with Mental Illnesses in Benton County</t>
-  </si>
-  <si>
     <t>10.1146/annurev-criminol-011419-041541</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
   </si>
   <si>
-    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
-  </si>
-  <si>
     <t>CC Lanfear, RL Matsueda</t>
   </si>
   <si>
@@ -207,9 +183,6 @@
     <t>CC Lanfear, LR Beach, RL Matsueda</t>
   </si>
   <si>
-    <t>Collective Action, Rational Choice, and Gang Delinquency: Appreciating Short and Strodtbeck (1965)</t>
-  </si>
-  <si>
     <t>R de Buen Kalman, CC Lanfear</t>
   </si>
   <si>
@@ -243,9 +216,6 @@
     <t>Collective Efficacy and Formal Social Control</t>
   </si>
   <si>
-    <t>Collective Efficacy and the Built Environment</t>
-  </si>
-  <si>
     <t>Criminology</t>
   </si>
   <si>
@@ -285,9 +255,6 @@
     <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
   </si>
   <si>
-    <t>Lead Exposure and Antisocial Behavior: A Systematic Review Protocol</t>
-  </si>
-  <si>
     <t>Environment International</t>
   </si>
   <si>
@@ -318,12 +285,6 @@
     <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2023.12465</t>
   </si>
   <si>
-    <t>Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
-  </si>
-  <si>
-    <t>Disentangling Gun Ownership and Leanings to Political Violence in Unstable Times</t>
-  </si>
-  <si>
     <t>RJ Sampson, CC Lanfear</t>
   </si>
   <si>
@@ -333,9 +294,6 @@
     <t>R Wickes, CC Lanfear</t>
   </si>
   <si>
-    <t>Collective Efficacy and Crime in Urban Neighborhoods</t>
-  </si>
-  <si>
     <t>Edward Elgar Publishing</t>
   </si>
   <si>
@@ -348,9 +306,6 @@
     <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2024.5066</t>
   </si>
   <si>
-    <t>The Promise and Perils of the Sharing Economy: The Impact of Airbnb Lettings on Crime</t>
-  </si>
-  <si>
     <t>(Forthcoming)</t>
   </si>
   <si>
@@ -360,10 +315,55 @@
     <t>CC Lanfear, DS Kirk, RJ Sampson</t>
   </si>
   <si>
-    <t>Dual Pathways of Concealed Gun Carrying and Use from Adolescence to Adulthood over a 25-Year Era of Change</t>
-  </si>
-  <si>
     <t>Science Advances</t>
+  </si>
+  <si>
+    <t>Formal social control in changing neighborhoods: Racial implications of neighborhood context on reactive policing</t>
+  </si>
+  <si>
+    <t>Patterns and correlates of adult American Indian substance use</t>
+  </si>
+  <si>
+    <t>Law enforcement response to “frequent fliers” An examination of high-frequency contacts between police and justice-involved persons with mental illness</t>
+  </si>
+  <si>
+    <t>Examining the relationship of substance use and sexual orientation</t>
+  </si>
+  <si>
+    <t>University researcher and law enforcement collaboration: Lessons from a study of justice-involved persons with suspected mental illness</t>
+  </si>
+  <si>
+    <t>Broken windows, informal social control, and crime: Assessing causality in empirical studies</t>
+  </si>
+  <si>
+    <t>Law enforcement response to people with mental illnesses in Benton County</t>
+  </si>
+  <si>
+    <t>Collective action, rational choice, and gang delinquency: Appreciating Short and Strodtbeck (1965)</t>
+  </si>
+  <si>
+    <t>Disorder and social control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
+  </si>
+  <si>
+    <t>Collective efficacy and the built environment</t>
+  </si>
+  <si>
+    <t>The promise and perils of the sharing economy: The impact of Airbnb lettings on crime</t>
+  </si>
+  <si>
+    <t>Lead exposure and antisocial behavior: A systematic review protocol</t>
+  </si>
+  <si>
+    <t>Inequalities in exposure to firearm violence by race, sex, and birth cohort from childhood to age 40 years, 1995-2021</t>
+  </si>
+  <si>
+    <t>Disentangling gun ownership and leanings to political violence in unstable times</t>
+  </si>
+  <si>
+    <t>Collective efficacy and crime in urban neighborhoods</t>
+  </si>
+  <si>
+    <t>Dual pathways of concealed gun carrying and use from adolescence to adulthood over a 25-year era of change</t>
   </si>
 </sst>
 </file>
@@ -739,18 +739,18 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.83984375" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.41796875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,585 +773,585 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2013</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>2022</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>2022</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>2024</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>2024</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7CA59C7-DE74-4956-B3E6-45F808F09977}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -123,9 +123,6 @@
     <t>RD Crutchfield, A Harris, CC Lanfear, TA Thomas</t>
   </si>
   <si>
-    <t>UWPD Racial Bias in Contacts Analysis</t>
-  </si>
-  <si>
     <t>Office of the University of Washington President</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>SM Akins, BC Burkhardt, CC Lanfear, KM Stevens, M Amorim</t>
   </si>
   <si>
-    <t>2013 County Jail Survey Executive Summary</t>
-  </si>
-  <si>
     <t>Association of Oregon Community Mental Health Programs</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>Seattle Police Department</t>
   </si>
   <si>
-    <t>Terry Stop Bias Report</t>
-  </si>
-  <si>
     <t>RL Matsueda, CC Lanfear</t>
   </si>
   <si>
@@ -165,30 +156,6 @@
     <t>Social Bridges and Contexts in Criminology and Sociology: Reflections on the Intellectual Legacy of James F. Short, Jr.</t>
   </si>
   <si>
-    <t>CC Lanfear, RL Matsueda</t>
-  </si>
-  <si>
-    <t>prep</t>
-  </si>
-  <si>
-    <t>(In Preparation)</t>
-  </si>
-  <si>
-    <t>CC Lanfear, LR Beach, KA Snedker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CC Lanfear, LR Beach, RL Matsueda</t>
-  </si>
-  <si>
-    <t>R de Buen Kalman, CC Lanfear</t>
-  </si>
-  <si>
-    <t>Uses of Mexico City Bikeshare in the Aftermath of the 2017 Earthquake</t>
-  </si>
-  <si>
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Annual%20Review%20of%20Criminology.pdf</t>
   </si>
   <si>
@@ -210,12 +177,6 @@
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/American%20Indian%20Substance%20Use.pdf</t>
   </si>
   <si>
-    <t>A Situational Theory of Neighborhood Crime</t>
-  </si>
-  <si>
-    <t>Collective Efficacy and Formal Social Control</t>
-  </si>
-  <si>
     <t>Criminology</t>
   </si>
   <si>
@@ -228,33 +189,9 @@
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/Collective%20Efficacy%20and%20the%20Built%20Environment.pdf</t>
   </si>
   <si>
-    <t>Property Crime and the Social Control of Homelessness in Seattle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorder, Race, and Sanctioning: A Field Experiment </t>
-  </si>
-  <si>
-    <t>KA Snedker, J McKinney, CC Lanfear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tents as the New Landscape for Urban Inequality: Homelessness pre- and post-COVID </t>
-  </si>
-  <si>
     <t>CC Lanfear, DS Kirk</t>
   </si>
   <si>
-    <t>Manuscript in preparation</t>
-  </si>
-  <si>
-    <t>Manuscript in revision</t>
-  </si>
-  <si>
-    <t>Research in progress</t>
-  </si>
-  <si>
-    <t>The Effect of Exposure to Violence on Perceptions of Collective Efficacy</t>
-  </si>
-  <si>
     <t>Environment International</t>
   </si>
   <si>
@@ -264,9 +201,6 @@
     <t>RM Shaffer, JE Forsyth, G Ferraro, C Till, LM Carlson, K Hester, A Haddock, J Strawbridge, CC Lanfear, H Hu, EF Kirrane</t>
   </si>
   <si>
-    <t>Expert Report: Hunters Capital, LLC v. City of Seattle (client)</t>
-  </si>
-  <si>
     <t>Case No. 20-cv-00983 TSZ, US District Court, Western District of Washington</t>
   </si>
   <si>
@@ -342,9 +276,6 @@
     <t>Collective action, rational choice, and gang delinquency: Appreciating Short and Strodtbeck (1965)</t>
   </si>
   <si>
-    <t>Disorder and social control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
-  </si>
-  <si>
     <t>Collective efficacy and the built environment</t>
   </si>
   <si>
@@ -364,6 +295,24 @@
   </si>
   <si>
     <t>Dual pathways of concealed gun carrying and use from adolescence to adulthood over a 25-year era of change</t>
+  </si>
+  <si>
+    <t>Expert report: Hunters Capital, LLC v. City of Seattle (client)</t>
+  </si>
+  <si>
+    <t>Terry stop bias report</t>
+  </si>
+  <si>
+    <t>2013 county jail survey executive summary</t>
+  </si>
+  <si>
+    <t>UWPD racial bias in contacts analysis</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/9781405165518.wbeos1636</t>
   </si>
 </sst>
 </file>
@@ -736,21 +685,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -787,13 +736,13 @@
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -802,7 +751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -813,13 +762,13 @@
         <v>2013</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -828,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -839,13 +788,13 @@
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -854,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -865,13 +814,13 @@
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -880,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -891,13 +840,13 @@
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -906,7 +855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -917,22 +866,22 @@
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -943,427 +892,289 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>2024</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>2023</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>2024</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>2024</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24">
-        <v>2022</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>2022</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26">
-        <v>2023</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27">
-        <v>2024</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28">
-        <v>2024</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F24" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{E6683F30-ABEA-46D8-B728-ACC89BF6A6FE}"/>
-    <hyperlink ref="F27" r:id="rId6" xr:uid="{4C28EB21-A683-48FA-B23B-9C7A90D47CC6}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F16" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F18" r:id="rId5" xr:uid="{E6683F30-ABEA-46D8-B728-ACC89BF6A6FE}"/>
+    <hyperlink ref="F19" r:id="rId6" xr:uid="{4C28EB21-A683-48FA-B23B-9C7A90D47CC6}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{EFD5AB30-6CE9-4C2C-BEC6-663FDDA67CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7CA59C7-DE74-4956-B3E6-45F808F09977}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795EA5A4-1A5D-45CD-B928-795E7358C980}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="3090" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -313,6 +313,24 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/9781405165518.wbeos1636</t>
+  </si>
+  <si>
+    <t>Comment: Testing a unified anomie and choice model of offender decision making</t>
+  </si>
+  <si>
+    <t>Journal of Institutional and Theoretical Economics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1745-9125.12383</t>
+  </si>
+  <si>
+    <t>10.1111/1745-9125.12383</t>
+  </si>
+  <si>
+    <t>62(4)</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/21.11116/0000-000F-7926-F</t>
   </si>
 </sst>
 </file>
@@ -386,6 +404,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,14 +1047,23 @@
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
+      <c r="C15">
+        <v>2024</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,8 +1165,8 @@
       <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="C20">
-        <v>2024</v>
+      <c r="C20" t="s">
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
@@ -1143,6 +1174,9 @@
       <c r="E20" t="s">
         <v>68</v>
       </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H20" t="s">
         <v>67</v>
       </c>
@@ -1162,6 +1196,23 @@
       </c>
       <c r="E21" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1173,8 +1224,10 @@
     <hyperlink ref="F18" r:id="rId5" xr:uid="{E6683F30-ABEA-46D8-B728-ACC89BF6A6FE}"/>
     <hyperlink ref="F19" r:id="rId6" xr:uid="{4C28EB21-A683-48FA-B23B-9C7A90D47CC6}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{EFD5AB30-6CE9-4C2C-BEC6-663FDDA67CC2}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{82618EFC-9AFF-4456-B2D7-390898DAEFAC}"/>
+    <hyperlink ref="F20" r:id="rId9" tooltip="Always points to the most recent version of this publication, which is accessible with your user rights. Depending on the status of the actual version you may directed to different versions." xr:uid="{0776119E-50DD-41B7-94C1-6081BDD04A7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795EA5A4-1A5D-45CD-B928-795E7358C980}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A38FDD0-1B16-4CD1-ABD0-E1AAF70F239D}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="3090" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>https://hdl.handle.net/21.11116/0000-000F-7926-F</t>
+  </si>
+  <si>
+    <t>https://www.science.org/doi/10.1126/sciadv.adp8915</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.adp8915</t>
+  </si>
+  <si>
+    <t>10(49)</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,14 +1197,23 @@
       <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
-        <v>71</v>
+      <c r="C21">
+        <v>2024</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,8 +1244,9 @@
     <hyperlink ref="F12" r:id="rId7" xr:uid="{EFD5AB30-6CE9-4C2C-BEC6-663FDDA67CC2}"/>
     <hyperlink ref="F15" r:id="rId8" xr:uid="{82618EFC-9AFF-4456-B2D7-390898DAEFAC}"/>
     <hyperlink ref="F20" r:id="rId9" tooltip="Always points to the most recent version of this publication, which is accessible with your user rights. Depending on the status of the actual version you may directed to different versions." xr:uid="{0776119E-50DD-41B7-94C1-6081BDD04A7C}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{56FFA712-1D86-458E-843B-5469D57D0E50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4E987518-14FD-4F1A-9C97-57CCD9A28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A38FDD0-1B16-4CD1-ABD0-E1AAF70F239D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F776A6-0480-42F7-A56C-621BF3FA0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3090" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>10(49)</t>
+  </si>
+  <si>
+    <t>https://github.com/clanfear/ccl_cv/raw/master/articles/lanfear_comment_formatted.pdf</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,18 +718,18 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.83984375" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -782,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -808,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -834,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -860,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -886,7 +885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -912,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -929,7 +928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -946,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -963,7 +962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -980,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1016,14 +1015,14 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1231,6 +1230,9 @@
       </c>
       <c r="E22" t="s">
         <v>97</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1247,10 @@
     <hyperlink ref="F15" r:id="rId8" xr:uid="{82618EFC-9AFF-4456-B2D7-390898DAEFAC}"/>
     <hyperlink ref="F20" r:id="rId9" tooltip="Always points to the most recent version of this publication, which is accessible with your user rights. Depending on the status of the actual version you may directed to different versions." xr:uid="{0776119E-50DD-41B7-94C1-6081BDD04A7C}"/>
     <hyperlink ref="F21" r:id="rId10" xr:uid="{56FFA712-1D86-458E-843B-5469D57D0E50}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{01ED78A2-2779-4870-9D68-7C49B913842B}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{BB7BBBBB-496F-4ADA-8F8E-0D25D142D88B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F776A6-0480-42F7-A56C-621BF3FA0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF850A5C-188E-4941-8227-0C4EAD259BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,9 +330,6 @@
     <t>62(4)</t>
   </si>
   <si>
-    <t>https://hdl.handle.net/21.11116/0000-000F-7926-F</t>
-  </si>
-  <si>
     <t>https://www.science.org/doi/10.1126/sciadv.adp8915</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>https://github.com/clanfear/ccl_cv/raw/master/articles/lanfear_comment_formatted.pdf</t>
+  </si>
+  <si>
+    <t>https://www.e-elgar.com/shop/usd/handbook-on-cities-and-crime-9781800375703.html</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1183,7 +1183,7 @@
         <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
         <v>67</v>
@@ -1206,13 +1206,13 @@
         <v>74</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>103</v>
-      </c>
-      <c r="H21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1232,7 +1232,7 @@
         <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1245,12 +1245,11 @@
     <hyperlink ref="F19" r:id="rId6" xr:uid="{4C28EB21-A683-48FA-B23B-9C7A90D47CC6}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{EFD5AB30-6CE9-4C2C-BEC6-663FDDA67CC2}"/>
     <hyperlink ref="F15" r:id="rId8" xr:uid="{82618EFC-9AFF-4456-B2D7-390898DAEFAC}"/>
-    <hyperlink ref="F20" r:id="rId9" tooltip="Always points to the most recent version of this publication, which is accessible with your user rights. Depending on the status of the actual version you may directed to different versions." xr:uid="{0776119E-50DD-41B7-94C1-6081BDD04A7C}"/>
-    <hyperlink ref="F21" r:id="rId10" xr:uid="{56FFA712-1D86-458E-843B-5469D57D0E50}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{01ED78A2-2779-4870-9D68-7C49B913842B}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{BB7BBBBB-496F-4ADA-8F8E-0D25D142D88B}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{56FFA712-1D86-458E-843B-5469D57D0E50}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{01ED78A2-2779-4870-9D68-7C49B913842B}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{BB7BBBBB-496F-4ADA-8F8E-0D25D142D88B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF850A5C-188E-4941-8227-0C4EAD259BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DF850A5C-188E-4941-8227-0C4EAD259BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E4CFCA-AD13-4F4E-92F1-555D1AE42606}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -718,18 +718,18 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.83984375" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.41796875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -807,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -928,7 +928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -945,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -962,7 +962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -979,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -999,7 +999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1166,15 +1166,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
-        <v>71</v>
+      <c r="C20">
+        <v>2025</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DF850A5C-188E-4941-8227-0C4EAD259BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E4CFCA-AD13-4F4E-92F1-555D1AE42606}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECAFC9E-C0A4-47BC-A02C-EA173B44A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>https://www.e-elgar.com/shop/usd/handbook-on-cities-and-crime-9781800375703.html</t>
+  </si>
+  <si>
+    <t>A tent census: How counting tents informs an understanding of unsheltered homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>KA Snedker, J McKinney, CC Lanfear</t>
+  </si>
+  <si>
+    <t>Socius</t>
   </si>
 </sst>
 </file>
@@ -715,21 +724,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.83984375" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -781,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -807,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -833,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -859,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -885,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -911,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -928,7 +937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -945,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -962,7 +971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -979,7 +988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1233,6 +1242,23 @@
       </c>
       <c r="F22" s="3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECAFC9E-C0A4-47BC-A02C-EA173B44A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0ECAFC9E-C0A4-47BC-A02C-EA173B44A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F77BCB16-5A09-43F9-B03E-A6B4B643E1CD}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
   <si>
     <t>type</t>
   </si>
@@ -240,9 +240,6 @@
     <t>https://jamanetwork.com/article.aspx?doi=10.1001/jamanetworkopen.2024.5066</t>
   </si>
   <si>
-    <t>(Forthcoming)</t>
-  </si>
-  <si>
     <t>Annual Review of Criminology</t>
   </si>
   <si>
@@ -352,6 +349,27 @@
   </si>
   <si>
     <t>Socius</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/23780231251338651</t>
+  </si>
+  <si>
+    <t>10.1177/23780231251338651</t>
+  </si>
+  <si>
+    <t>181(2)</t>
+  </si>
+  <si>
+    <t>When do guardians deter offending? An experimental test of informal social control mechanisms</t>
+  </si>
+  <si>
+    <t>Journal of Quantitative Criminology</t>
+  </si>
+  <si>
+    <t>DS Nagin, CC Lanfear, C Engel</t>
+  </si>
+  <si>
+    <t>(Conditional Accept)</t>
   </si>
 </sst>
 </file>
@@ -724,21 +742,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.83984375" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.41796875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -775,7 +793,7 @@
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -790,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -801,7 +819,7 @@
         <v>2013</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -816,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -827,7 +845,7 @@
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -842,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -853,7 +871,7 @@
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -868,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -879,7 +897,7 @@
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -894,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -905,10 +923,10 @@
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -920,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -931,13 +949,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -948,13 +966,13 @@
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -965,13 +983,13 @@
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -982,13 +1000,13 @@
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1005,10 +1023,10 @@
         <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
@@ -1028,10 +1046,10 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>2022</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -1057,7 +1075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1068,22 +1086,22 @@
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
         <v>98</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>2022</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
@@ -1106,7 +1124,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1117,13 +1135,13 @@
         <v>2022</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>2023</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>60</v>
@@ -1149,7 +1167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -1175,7 +1193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1186,79 +1204,108 @@
         <v>2025</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>2024</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="H21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
+      <c r="C22">
+        <v>2025</v>
       </c>
       <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
         <v>96</v>
       </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
         <v>107</v>
       </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1274,8 +1321,9 @@
     <hyperlink ref="F21" r:id="rId9" xr:uid="{56FFA712-1D86-458E-843B-5469D57D0E50}"/>
     <hyperlink ref="F13" r:id="rId10" xr:uid="{01ED78A2-2779-4870-9D68-7C49B913842B}"/>
     <hyperlink ref="F22" r:id="rId11" xr:uid="{BB7BBBBB-496F-4ADA-8F8E-0D25D142D88B}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{414F80D1-F804-4ABF-AFEB-433C82EECD71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0ECAFC9E-C0A4-47BC-A02C-EA173B44A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F77BCB16-5A09-43F9-B03E-A6B4B643E1CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91CE189-C1B9-470D-A310-6394BF84D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     <t>DS Nagin, CC Lanfear, C Engel</t>
   </si>
   <si>
-    <t>(Conditional Accept)</t>
+    <t>Forthcoming</t>
   </si>
 </sst>
 </file>
@@ -745,18 +745,18 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -834,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -860,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -886,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -972,7 +972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -989,7 +989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91CE189-C1B9-470D-A310-6394BF84D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB12559-0703-480D-94DB-9E8D6BF2D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>type</t>
   </si>
@@ -369,7 +369,10 @@
     <t>DS Nagin, CC Lanfear, C Engel</t>
   </si>
   <si>
-    <t>Forthcoming</t>
+    <t>10.1007/s10940-025-09616-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10940-025-09616-8</t>
   </si>
 </sst>
 </file>
@@ -748,15 +751,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.83984375" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
+    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -808,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -834,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -860,7 +864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -886,7 +890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -912,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -938,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -955,7 +959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -972,7 +976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -989,7 +993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1291,21 +1295,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
-        <v>114</v>
+      <c r="C24">
+        <v>2025</v>
       </c>
       <c r="D24" t="s">
         <v>111</v>
       </c>
       <c r="E24" t="s">
         <v>112</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1322,8 +1332,9 @@
     <hyperlink ref="F13" r:id="rId10" xr:uid="{01ED78A2-2779-4870-9D68-7C49B913842B}"/>
     <hyperlink ref="F22" r:id="rId11" xr:uid="{BB7BBBBB-496F-4ADA-8F8E-0D25D142D88B}"/>
     <hyperlink ref="F23" r:id="rId12" xr:uid="{414F80D1-F804-4ABF-AFEB-433C82EECD71}"/>
+    <hyperlink ref="F24" r:id="rId13" xr:uid="{AF656063-5565-482A-8E9F-6EF001DB19F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB12559-0703-480D-94DB-9E8D6BF2D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420C74C-F544-480F-BAB1-F710E49E5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/s10940-025-09616-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -748,19 +751,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.83984375" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.41796875" customWidth="1"/>
-    <col min="6" max="6" width="42.41796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.578125" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -812,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -838,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -864,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -890,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -916,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -942,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -959,7 +962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -976,7 +979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -993,7 +996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1316,6 +1319,9 @@
       </c>
       <c r="G24" t="s">
         <v>114</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420C74C-F544-480F-BAB1-F710E49E5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225510CA-5901-4A33-BE94-3A4A2CD7386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,6 @@
     <t>Journal of Quantitative Criminology</t>
   </si>
   <si>
-    <t>DS Nagin, CC Lanfear, C Engel</t>
-  </si>
-  <si>
     <t>10.1007/s10940-025-09616-8</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>C Engel, CC Lanfear, DS Nagin</t>
   </si>
 </sst>
 </file>
@@ -751,19 +751,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.7890625" customWidth="1"/>
+    <col min="4" max="4" width="65.26171875" customWidth="1"/>
+    <col min="5" max="5" width="34.47265625" customWidth="1"/>
+    <col min="6" max="6" width="42.47265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -815,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -841,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -893,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -962,7 +962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -979,7 +979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -996,7 +996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1298,12 +1298,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C24">
         <v>2025</v>
@@ -1315,13 +1315,13 @@
         <v>112</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225510CA-5901-4A33-BE94-3A4A2CD7386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{225510CA-5901-4A33-BE94-3A4A2CD7386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8932C369-BDDE-4C1E-AA25-2B21045A8A10}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>C Engel, CC Lanfear, DS Nagin</t>
+  </si>
+  <si>
+    <t>Lead exposure and antisocial behavior: A systematic review of human and animal evidence</t>
+  </si>
+  <si>
+    <t>(Forthcoming)</t>
   </si>
 </sst>
 </file>
@@ -748,22 +754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7890625" customWidth="1"/>
-    <col min="4" max="4" width="65.26171875" customWidth="1"/>
-    <col min="5" max="5" width="34.47265625" customWidth="1"/>
-    <col min="6" max="6" width="42.47265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.5234375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -815,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -841,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -867,7 +873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -893,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -919,7 +925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -945,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -962,7 +968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -979,7 +985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1322,6 +1328,23 @@
       </c>
       <c r="H24" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{225510CA-5901-4A33-BE94-3A4A2CD7386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8932C369-BDDE-4C1E-AA25-2B21045A8A10}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{225510CA-5901-4A33-BE94-3A4A2CD7386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A3AE3C-5F01-44B3-99D2-976BD8A6DB38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-3770" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,6 +455,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,7 +761,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1356,7 @@
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F16" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="F18" r:id="rId5" xr:uid="{E6683F30-ABEA-46D8-B728-ACC89BF6A6FE}"/>
     <hyperlink ref="F19" r:id="rId6" xr:uid="{4C28EB21-A683-48FA-B23B-9C7A90D47CC6}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{EFD5AB30-6CE9-4C2C-BEC6-663FDDA67CC2}"/>

--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{225510CA-5901-4A33-BE94-3A4A2CD7386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A3AE3C-5F01-44B3-99D2-976BD8A6DB38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD0509-C721-438D-A8B2-98F2200E9CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-3770" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="2290" windowWidth="28250" windowHeight="18170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -381,7 +381,13 @@
     <t>Lead exposure and antisocial behavior: A systematic review of human and animal evidence</t>
   </si>
   <si>
-    <t>(Forthcoming)</t>
+    <t>RM Shaffer, LM Carlson, K Hester, H Kim, P Duffney,  JE Forsyth,  G Ferraro, C Till,  A Haddock, J Strawbridge, CC Lanfear, Z Gohari, AL Lee, H Hu, EF Kirrane</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.envint.2025.109786</t>
+  </si>
+  <si>
+    <t>10.1016/j.envint.2025.109786</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,19 +763,19 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -825,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -851,7 +853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -877,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -903,7 +905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -929,7 +931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -955,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -972,7 +974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -989,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1334,21 +1336,30 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
         <v>118</v>
+      </c>
+      <c r="C25">
+        <v>2025</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25">
+        <v>109786</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1377,9 @@
     <hyperlink ref="F22" r:id="rId11" xr:uid="{BB7BBBBB-496F-4ADA-8F8E-0D25D142D88B}"/>
     <hyperlink ref="F23" r:id="rId12" xr:uid="{414F80D1-F804-4ABF-AFEB-433C82EECD71}"/>
     <hyperlink ref="F24" r:id="rId13" xr:uid="{AF656063-5565-482A-8E9F-6EF001DB19F8}"/>
+    <hyperlink ref="F25" r:id="rId14" xr:uid="{3659F2BA-3C68-4FBE-8D5E-141D76D2601C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/cv_data/publications.xlsx
+++ b/cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD0509-C721-438D-A8B2-98F2200E9CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1456F3F-47D8-4E1A-8875-7E191CC40679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="2290" windowWidth="28250" windowHeight="18170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
   <si>
     <t>type</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>10.1016/j.envint.2025.109786</t>
+  </si>
+  <si>
+    <t>205(109786)</t>
   </si>
 </sst>
 </file>
@@ -1358,8 +1361,8 @@
       <c r="G25" t="s">
         <v>120</v>
       </c>
-      <c r="H25">
-        <v>109786</v>
+      <c r="H25" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
